--- a/tests/test_interfaces/fixtures/openpyxl.xlsx
+++ b/tests/test_interfaces/fixtures/openpyxl.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ED7D91-9C1B-4EC1-8FB1-563EE8914301}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F638D0-EFD4-4278-97AB-D44688593E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="36660" windowHeight="20625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ws1" sheetId="1" r:id="rId1"/>
     <sheet name="ws2" sheetId="2" r:id="rId2"/>
+    <sheet name="hyperlink" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="TEST_LOCAL_NAMED_RANGE" localSheetId="0">'ws1'!$C$1:$C$5</definedName>
     <definedName name="TEST_NAMED_RANGE">'ws1'!$B$1:$B$5</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,22 +26,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>text1</t>
   </si>
   <si>
     <t>text2</t>
   </si>
+  <si>
+    <t>http://ya.ru</t>
+  </si>
+  <si>
+    <t>Яндекс</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,14 +78,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -351,7 +369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -499,4 +517,102 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B1EBA3-71E7-4E0C-A2BE-975493043AA6}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="str">
+        <f>HYPERLINK("https://ya.ru")</f>
+        <v>https://ya.ru</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="str">
+        <f>HYPERLINK("https://ya.ru", "text")</f>
+        <v>text</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="str">
+        <f>HYPERLINK("https://ya.ru", IF(TRUE, "lalala", "bababa"))</f>
+        <v>lalala</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="str">
+        <f>HYPERLINK(IF(FALSE,"https://ya.ru","https://ya2.ru"), "bababa")</f>
+        <v>bababa</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="str">
+        <f>HYPERLINK(IF(FALSE,"https://ya.ru","https://ya2.ru"),  IF(FALSE,"lalala", "bababa"))</f>
+        <v>bababa</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>IF(TRUE, HYPERLINK("https://ya.ru"), HYPERLINK("https://ya2.ru"))</f>
+        <v>https://ya.ru</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="str">
+        <f>HYPERLINK(B7,C7)</f>
+        <v>Яндекс</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>B8+123</f>
+        <v>2468</v>
+      </c>
+      <c r="B8" s="2">
+        <f>HYPERLINK("https://ya.ru", 2345)</f>
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>B9&amp;"text"</f>
+        <v>https://ya.rutext</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>HYPERLINK("https://ya.ru")</f>
+        <v>https://ya.ru</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>B10</f>
+        <v>https://ya.ru</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>HYPERLINK("https://ya.ru")</f>
+        <v>https://ya.ru</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{0286FF39-B71B-433D-B92C-D715F420A415}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>